--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_23_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_23_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174705.2715136211</v>
+        <v>41507.66877741576</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23520585.36040892</v>
+        <v>23547533.18086206</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4107615.66886821</v>
+        <v>4103775.093140731</v>
       </c>
     </row>
     <row r="11">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.981417969277446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>9.349817023651571</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.73183452244704</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>11.97174400145695</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>12.73183452244704</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.74038835521491</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12.73183452244704</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>12.73183452244704</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11.21419984737135</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1967,22 +1967,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.73183452244704</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>20.3647070756921</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.97174400145691</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12.731834522447</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>12.731834522447</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>21.7403883552149</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.21419984737131</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>12.731834522447</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.731834522447</v>
+        <v>20.36470707569211</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>12.731834522447</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>28.21331155043518</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>41.22050970576248</v>
+        <v>21.24266739237292</v>
       </c>
       <c r="H23" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>36.30702494883558</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="E24" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>19.0176833557226</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>28.21331155043518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.22050970576248</v>
+        <v>21.24266739237292</v>
       </c>
     </row>
     <row r="27">
@@ -2648,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.69772772529097</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>9.609297223544615</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>41.22050970576248</v>
+        <v>19.0176833557226</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
     </row>
     <row r="28">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>28.21331155043519</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="R29" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>21.24266739237292</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>19.0176833557226</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>36.30702494883558</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="Y30" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>21.24266739237292</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>28.21331155043519</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>9.609297223544615</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>26.69772772529097</v>
+        <v>31.37959712773264</v>
       </c>
       <c r="V33" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="W33" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
     </row>
     <row r="34">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>18.20195973672924</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>10.01135181370596</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>21.24266739237292</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>36.30702494883558</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>41.22050970576248</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>41.22050970576248</v>
+        <v>31.37959712773264</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>21.24266739237292</v>
       </c>
       <c r="F38" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="G38" t="n">
-        <v>28.21331155043519</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>41.22050970576246</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>36.30702494883558</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>41.22050970576246</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>41.22050970576246</v>
+        <v>31.37959712773264</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="Y39" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
     </row>
     <row r="40">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>10.51807882769935</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>22.07767445133332</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>8.002793303682054</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="U42" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="V42" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.0928251014642</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>21.7403883552149</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="W44" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>28.48867518331542</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.2313633811131523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>20.36470707569211</v>
       </c>
       <c r="G45" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="H45" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="I45" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>25.09282510146421</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>11.57157695474818</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>11.57157695474818</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>11.57157695474818</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>11.35820187932241</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>21.86719240318147</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.6538173277557</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>21.6538173277557</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21.6538173277557</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.6538173277557</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>11.35820187932241</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>21.86719240318147</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>32.37618292704052</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.4605677731679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>42.4605677731679</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>42.4605677731679</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.73820217388307</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>31.73820217388307</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>31.73820217388307</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>21.01583657459825</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>11.57157695474818</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>11.57157695474818</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.8492113554633579</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.9716563819008</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="C17" t="n">
-        <v>25.9716563819008</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="D17" t="n">
-        <v>25.9716563819008</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E17" t="n">
-        <v>25.9716563819008</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F17" t="n">
-        <v>25.9716563819008</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G17" t="n">
-        <v>13.11121747033813</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H17" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I17" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J17" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K17" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L17" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M17" t="n">
-        <v>13.62306293901833</v>
+        <v>24.73914233763687</v>
       </c>
       <c r="N17" t="n">
-        <v>26.2275791162409</v>
+        <v>47.62862917339436</v>
       </c>
       <c r="O17" t="n">
-        <v>38.83209529346346</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9716563819008</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.9716563819008</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="R17" t="n">
-        <v>25.9716563819008</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="S17" t="n">
-        <v>25.9716563819008</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="T17" t="n">
-        <v>25.9716563819008</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="U17" t="n">
-        <v>25.9716563819008</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="V17" t="n">
-        <v>25.9716563819008</v>
+        <v>48.55812777156102</v>
       </c>
       <c r="W17" t="n">
-        <v>25.9716563819008</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="X17" t="n">
-        <v>25.9716563819008</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.9716563819008</v>
+        <v>25.20389163672021</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G18" t="n">
-        <v>25.20646026666282</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H18" t="n">
-        <v>12.34602135510016</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I18" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J18" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K18" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L18" t="n">
-        <v>13.11378955812045</v>
+        <v>3.224055182105332</v>
       </c>
       <c r="M18" t="n">
-        <v>25.71830573534302</v>
+        <v>26.11354201786281</v>
       </c>
       <c r="N18" t="n">
-        <v>38.32282191256558</v>
+        <v>49.00302885362029</v>
       </c>
       <c r="O18" t="n">
-        <v>38.32282191256558</v>
+        <v>71.89251568937777</v>
       </c>
       <c r="P18" t="n">
-        <v>50.92733808978814</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.06689917822548</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="R18" t="n">
-        <v>38.06689917822548</v>
+        <v>69.1285389591288</v>
       </c>
       <c r="S18" t="n">
-        <v>38.06689917822548</v>
+        <v>69.1285389591288</v>
       </c>
       <c r="T18" t="n">
-        <v>38.06689917822548</v>
+        <v>45.77430282428799</v>
       </c>
       <c r="U18" t="n">
-        <v>38.06689917822548</v>
+        <v>22.42006668944717</v>
       </c>
       <c r="V18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="W18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="X18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y18" t="n">
-        <v>38.06689917822548</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="N19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="O19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="P19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="R19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="S19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="T19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="U19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="V19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="W19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="X19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.018546761795763</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.83209529346335</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C20" t="n">
-        <v>26.73942458492102</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D20" t="n">
-        <v>26.73942458492102</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E20" t="n">
-        <v>13.87898567335839</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M20" t="n">
-        <v>13.62306293901829</v>
+        <v>24.73914233763687</v>
       </c>
       <c r="N20" t="n">
-        <v>26.22757911624083</v>
+        <v>47.62862917339436</v>
       </c>
       <c r="O20" t="n">
-        <v>38.83209529346335</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="P20" t="n">
-        <v>38.83209529346335</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.83209529346335</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="R20" t="n">
-        <v>38.83209529346335</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="S20" t="n">
-        <v>38.83209529346335</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="T20" t="n">
-        <v>38.83209529346335</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="U20" t="n">
-        <v>38.83209529346335</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="V20" t="n">
-        <v>38.83209529346335</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="W20" t="n">
-        <v>38.83209529346335</v>
+        <v>23.80964373947021</v>
       </c>
       <c r="X20" t="n">
-        <v>38.83209529346335</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.83209529346335</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.87898567335839</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C21" t="n">
-        <v>13.87898567335839</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K21" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L21" t="n">
-        <v>13.11378955812041</v>
+        <v>24.73914233763687</v>
       </c>
       <c r="M21" t="n">
-        <v>25.71830573534294</v>
+        <v>47.62862917339436</v>
       </c>
       <c r="N21" t="n">
-        <v>38.32282191256547</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="O21" t="n">
-        <v>50.92733808978801</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="P21" t="n">
-        <v>50.92733808978801</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.06689917822538</v>
+        <v>71.91236390640184</v>
       </c>
       <c r="R21" t="n">
-        <v>38.06689917822538</v>
+        <v>48.55812777156102</v>
       </c>
       <c r="S21" t="n">
-        <v>38.06689917822538</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="T21" t="n">
-        <v>38.06689917822538</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="U21" t="n">
-        <v>38.06689917822538</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="V21" t="n">
-        <v>38.06689917822538</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="W21" t="n">
-        <v>38.06689917822538</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="X21" t="n">
-        <v>25.20646026666275</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y21" t="n">
-        <v>25.20646026666275</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="P22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="R22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="X22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.01854676179576</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="C23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="D23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="E23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="F23" t="n">
-        <v>86.57139775779936</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="G23" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H23" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I23" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J23" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K23" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L23" t="n">
-        <v>5.249294604296455</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M23" t="n">
-        <v>46.05759921300131</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="N23" t="n">
-        <v>86.86590382170617</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="O23" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="P23" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="R23" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="S23" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="T23" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="U23" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="V23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="W23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="X23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="Y23" t="n">
-        <v>115.0696922531884</v>
+        <v>24.30733943857111</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123.2451603323807</v>
+        <v>87.30909457697797</v>
       </c>
       <c r="C24" t="n">
-        <v>123.2451603323807</v>
+        <v>87.30909457697797</v>
       </c>
       <c r="D24" t="n">
-        <v>86.57139775779936</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="E24" t="n">
-        <v>44.93451926713018</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="F24" t="n">
-        <v>3.297640776460999</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="G24" t="n">
-        <v>3.297640776460999</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="H24" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="I24" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="J24" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="K24" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L24" t="n">
-        <v>44.10594538516586</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="M24" t="n">
-        <v>84.91424999387073</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="N24" t="n">
-        <v>125.7225546025756</v>
+        <v>86.64473986252359</v>
       </c>
       <c r="O24" t="n">
-        <v>141.0692195929911</v>
+        <v>121.9147230101795</v>
       </c>
       <c r="P24" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="R24" t="n">
-        <v>164.8820388230499</v>
+        <v>123.2952012473748</v>
       </c>
       <c r="S24" t="n">
-        <v>164.8820388230499</v>
+        <v>123.2952012473748</v>
       </c>
       <c r="T24" t="n">
-        <v>164.8820388230499</v>
+        <v>123.2952012473748</v>
       </c>
       <c r="U24" t="n">
-        <v>164.8820388230499</v>
+        <v>123.2952012473748</v>
       </c>
       <c r="V24" t="n">
-        <v>123.2451603323807</v>
+        <v>123.2952012473748</v>
       </c>
       <c r="W24" t="n">
-        <v>123.2451603323807</v>
+        <v>87.30909457697797</v>
       </c>
       <c r="X24" t="n">
-        <v>123.2451603323807</v>
+        <v>87.30909457697797</v>
       </c>
       <c r="Y24" t="n">
-        <v>123.2451603323807</v>
+        <v>87.30909457697797</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="N25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="O25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="P25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="R25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="S25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="T25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="U25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="V25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K26" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L26" t="n">
-        <v>5.249294604296455</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M26" t="n">
-        <v>46.05759921300131</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="N26" t="n">
-        <v>86.86590382170617</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="O26" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="P26" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="R26" t="n">
-        <v>86.57139775779936</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="S26" t="n">
-        <v>86.57139775779936</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="T26" t="n">
-        <v>86.57139775779936</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="U26" t="n">
-        <v>86.57139775779936</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="V26" t="n">
-        <v>86.57139775779936</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="W26" t="n">
-        <v>86.57139775779936</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="X26" t="n">
-        <v>86.57139775779936</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="Y26" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123.2451603323807</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="C27" t="n">
-        <v>123.2451603323807</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="D27" t="n">
-        <v>123.2451603323807</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="E27" t="n">
-        <v>123.2451603323807</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="F27" t="n">
-        <v>123.2451603323807</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="G27" t="n">
-        <v>96.2777585896626</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="H27" t="n">
-        <v>54.64088009899342</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="I27" t="n">
-        <v>13.00400160832425</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="J27" t="n">
-        <v>13.00400160832425</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="K27" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L27" t="n">
-        <v>18.64430576687657</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="M27" t="n">
-        <v>59.45261037558143</v>
+        <v>51.37475671486769</v>
       </c>
       <c r="N27" t="n">
-        <v>100.2609149842863</v>
+        <v>86.64473986252359</v>
       </c>
       <c r="O27" t="n">
-        <v>141.0692195929911</v>
+        <v>121.9147230101795</v>
       </c>
       <c r="P27" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="R27" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="S27" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="T27" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="U27" t="n">
-        <v>123.2451603323807</v>
+        <v>123.2952012473748</v>
       </c>
       <c r="V27" t="n">
-        <v>123.2451603323807</v>
+        <v>87.30909457697797</v>
       </c>
       <c r="W27" t="n">
-        <v>123.2451603323807</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="X27" t="n">
-        <v>123.2451603323807</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="Y27" t="n">
-        <v>123.2451603323807</v>
+        <v>15.33688123618436</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="N28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="O28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="P28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="R28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="S28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="T28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="U28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="V28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H29" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I29" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J29" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K29" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L29" t="n">
-        <v>5.249294604296455</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M29" t="n">
-        <v>46.05759921300131</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="N29" t="n">
-        <v>86.86590382170617</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="O29" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="P29" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.43281376251926</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="R29" t="n">
-        <v>31.79593527185008</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="S29" t="n">
-        <v>31.79593527185008</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="T29" t="n">
-        <v>31.79593527185008</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="U29" t="n">
-        <v>31.79593527185008</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="V29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44.93451926713018</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="C30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="D30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="E30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="F30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="G30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="H30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="I30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="J30" t="n">
-        <v>3.297640776460999</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="K30" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L30" t="n">
-        <v>44.10594538516586</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="M30" t="n">
-        <v>59.45261037558143</v>
+        <v>51.37475671486769</v>
       </c>
       <c r="N30" t="n">
-        <v>100.2609149842863</v>
+        <v>86.64473986252359</v>
       </c>
       <c r="O30" t="n">
-        <v>141.0692195929911</v>
+        <v>121.9147230101795</v>
       </c>
       <c r="P30" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="R30" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="S30" t="n">
-        <v>164.8820388230499</v>
+        <v>106.5188757443745</v>
       </c>
       <c r="T30" t="n">
-        <v>164.8820388230499</v>
+        <v>70.53276907397773</v>
       </c>
       <c r="U30" t="n">
-        <v>164.8820388230499</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="V30" t="n">
-        <v>164.8820388230499</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="W30" t="n">
-        <v>128.2082762484685</v>
+        <v>51.32298790658116</v>
       </c>
       <c r="X30" t="n">
-        <v>86.57139775779936</v>
+        <v>15.33688123618436</v>
       </c>
       <c r="Y30" t="n">
-        <v>44.93451926713018</v>
+        <v>15.33688123618436</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="N31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="O31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="P31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="R31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="S31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="T31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="U31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="V31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.297640776460999</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="C32" t="n">
-        <v>3.297640776460999</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="D32" t="n">
-        <v>3.297640776460999</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="E32" t="n">
-        <v>3.297640776460999</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="F32" t="n">
-        <v>3.297640776460999</v>
+        <v>38.83620631869223</v>
       </c>
       <c r="G32" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H32" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I32" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J32" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K32" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L32" t="n">
-        <v>5.249294604296455</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M32" t="n">
-        <v>46.05759921300131</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="N32" t="n">
-        <v>86.86590382170617</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="O32" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="P32" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="R32" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="S32" t="n">
-        <v>115.0696922531884</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="T32" t="n">
-        <v>115.0696922531884</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="U32" t="n">
-        <v>115.0696922531884</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="V32" t="n">
-        <v>73.43281376251926</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="W32" t="n">
-        <v>31.79593527185008</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="X32" t="n">
-        <v>3.297640776460999</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.297640776460999</v>
+        <v>74.82231298908904</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K33" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L33" t="n">
-        <v>44.10594538516586</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="M33" t="n">
-        <v>84.91424999387073</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="N33" t="n">
-        <v>100.2609149842863</v>
+        <v>108.6600490912631</v>
       </c>
       <c r="O33" t="n">
-        <v>141.0692195929911</v>
+        <v>121.9147230101795</v>
       </c>
       <c r="P33" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="R33" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="S33" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="T33" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="U33" t="n">
-        <v>137.9146370803318</v>
+        <v>110.8084196594858</v>
       </c>
       <c r="V33" t="n">
-        <v>96.2777585896626</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="W33" t="n">
-        <v>54.64088009899342</v>
+        <v>38.83620631869223</v>
       </c>
       <c r="X33" t="n">
-        <v>54.64088009899342</v>
+        <v>38.83620631869223</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.00400160832425</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="N34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="O34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="P34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="R34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="S34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="T34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="U34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="V34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G35" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H35" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I35" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J35" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K35" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L35" t="n">
-        <v>5.249294604296455</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M35" t="n">
-        <v>46.05759921300131</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="N35" t="n">
-        <v>86.86590382170617</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="O35" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="P35" t="n">
-        <v>96.68387433730032</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.04699584663115</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="R35" t="n">
-        <v>55.04699584663115</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="S35" t="n">
-        <v>44.93451926713018</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="T35" t="n">
-        <v>44.93451926713018</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="U35" t="n">
-        <v>44.93451926713018</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="V35" t="n">
-        <v>44.93451926713018</v>
+        <v>24.30733943857111</v>
       </c>
       <c r="W35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>123.2451603323807</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C36" t="n">
-        <v>123.2451603323807</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D36" t="n">
-        <v>86.57139775779936</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E36" t="n">
-        <v>86.57139775779936</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F36" t="n">
-        <v>44.93451926713018</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G36" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H36" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I36" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J36" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K36" t="n">
-        <v>3.297640776460999</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L36" t="n">
-        <v>18.64430576687657</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="M36" t="n">
-        <v>59.45261037558143</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="N36" t="n">
-        <v>100.2609149842863</v>
+        <v>86.64473986252359</v>
       </c>
       <c r="O36" t="n">
-        <v>141.0692195929911</v>
+        <v>121.9147230101795</v>
       </c>
       <c r="P36" t="n">
-        <v>164.8820388230499</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.8820388230499</v>
+        <v>106.5188757443745</v>
       </c>
       <c r="R36" t="n">
-        <v>164.8820388230499</v>
+        <v>106.5188757443745</v>
       </c>
       <c r="S36" t="n">
-        <v>164.8820388230499</v>
+        <v>106.5188757443745</v>
       </c>
       <c r="T36" t="n">
-        <v>164.8820388230499</v>
+        <v>106.5188757443745</v>
       </c>
       <c r="U36" t="n">
-        <v>123.2451603323807</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="V36" t="n">
-        <v>123.2451603323807</v>
+        <v>38.83620631869223</v>
       </c>
       <c r="W36" t="n">
-        <v>123.2451603323807</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X36" t="n">
-        <v>123.2451603323807</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y36" t="n">
-        <v>123.2451603323807</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="N37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="O37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="P37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="R37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="S37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="T37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="U37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="V37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y37" t="n">
-        <v>164.8820388230499</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="C38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="D38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="E38" t="n">
-        <v>73.43281376251923</v>
+        <v>38.83620631869223</v>
       </c>
       <c r="F38" t="n">
-        <v>31.79593527185008</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G38" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H38" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I38" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J38" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K38" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L38" t="n">
-        <v>5.249294604296454</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M38" t="n">
-        <v>46.05759921300129</v>
+        <v>38.12008279595133</v>
       </c>
       <c r="N38" t="n">
-        <v>86.86590382170613</v>
+        <v>73.39006594360724</v>
       </c>
       <c r="O38" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="P38" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.0696922531884</v>
+        <v>96.27955277936472</v>
       </c>
       <c r="R38" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="S38" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="T38" t="n">
-        <v>115.0696922531884</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="U38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="V38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="W38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="X38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.43281376251923</v>
+        <v>60.29344610896791</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.297640776460997</v>
+        <v>38.83620631869223</v>
       </c>
       <c r="C39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K39" t="n">
-        <v>3.297640776460997</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L39" t="n">
-        <v>44.10594538516583</v>
+        <v>16.10477356721178</v>
       </c>
       <c r="M39" t="n">
-        <v>84.91424999387067</v>
+        <v>51.37475671486769</v>
       </c>
       <c r="N39" t="n">
-        <v>125.7225546025755</v>
+        <v>86.64473986252359</v>
       </c>
       <c r="O39" t="n">
-        <v>164.8820388230498</v>
+        <v>121.9147230101795</v>
       </c>
       <c r="P39" t="n">
-        <v>164.8820388230498</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.8820388230498</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="R39" t="n">
-        <v>164.8820388230498</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="S39" t="n">
-        <v>164.8820388230498</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="T39" t="n">
-        <v>164.8820388230498</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="U39" t="n">
-        <v>128.2082762484685</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="V39" t="n">
-        <v>86.5713977577993</v>
+        <v>142.5049824147713</v>
       </c>
       <c r="W39" t="n">
-        <v>44.93451926713015</v>
+        <v>110.8084196594858</v>
       </c>
       <c r="X39" t="n">
-        <v>44.93451926713015</v>
+        <v>74.82231298908904</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.297640776460997</v>
+        <v>38.83620631869223</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="C40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="D40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="E40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="F40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="H40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="I40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="K40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="L40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="M40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="N40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="O40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="P40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="R40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="S40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="T40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="U40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="V40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="W40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="X40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.8820388230498</v>
+        <v>2.850099648295427</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.90341606284639</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="C41" t="n">
-        <v>12.90341606284639</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="D41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="E41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="F41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="G41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="H41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="I41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="J41" t="n">
-        <v>2.279094014665234</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="K41" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L41" t="n">
-        <v>4.230747842500691</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M41" t="n">
-        <v>32.43453627398296</v>
+        <v>24.73914233763687</v>
       </c>
       <c r="N41" t="n">
-        <v>60.63832470546522</v>
+        <v>47.62862917339436</v>
       </c>
       <c r="O41" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="P41" t="n">
-        <v>70.45629522105938</v>
+        <v>47.50457290069326</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.45629522105938</v>
+        <v>47.50457290069326</v>
       </c>
       <c r="R41" t="n">
-        <v>70.45629522105938</v>
+        <v>47.50457290069326</v>
       </c>
       <c r="S41" t="n">
-        <v>70.45629522105938</v>
+        <v>47.50457290069326</v>
       </c>
       <c r="T41" t="n">
-        <v>70.45629522105938</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="U41" t="n">
-        <v>70.45629522105938</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="V41" t="n">
-        <v>41.67985564195288</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="W41" t="n">
-        <v>12.90341606284639</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="X41" t="n">
-        <v>12.90341606284639</v>
+        <v>24.15033676585245</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.90341606284639</v>
+        <v>24.15033676585245</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="C42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="D42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="E42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="F42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="G42" t="n">
-        <v>2.279094014665234</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="H42" t="n">
-        <v>2.279094014665234</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="I42" t="n">
-        <v>2.279094014665234</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="J42" t="n">
-        <v>2.279094014665234</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="K42" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L42" t="n">
-        <v>30.4828824461475</v>
+        <v>24.73914233763687</v>
       </c>
       <c r="M42" t="n">
-        <v>58.68667087762977</v>
+        <v>47.62862917339436</v>
       </c>
       <c r="N42" t="n">
-        <v>86.89045930911203</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="O42" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="P42" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.9547007332617</v>
+        <v>84.39914549429078</v>
       </c>
       <c r="R42" t="n">
-        <v>113.9547007332617</v>
+        <v>84.39914549429078</v>
       </c>
       <c r="S42" t="n">
-        <v>113.9547007332617</v>
+        <v>84.39914549429078</v>
       </c>
       <c r="T42" t="n">
-        <v>113.9547007332617</v>
+        <v>61.04490935944996</v>
       </c>
       <c r="U42" t="n">
-        <v>85.17826115415519</v>
+        <v>37.69067322460914</v>
       </c>
       <c r="V42" t="n">
-        <v>56.4018215750487</v>
+        <v>37.69067322460914</v>
       </c>
       <c r="W42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="X42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.05553359377172</v>
+        <v>14.33643708976832</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="N43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="O43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="P43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="R43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="S43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="T43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="U43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="V43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="W43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="X43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.279094014665234</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="C44" t="n">
-        <v>2.279094014665234</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="D44" t="n">
-        <v>2.279094014665234</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="E44" t="n">
-        <v>2.279094014665234</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="F44" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G44" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H44" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I44" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J44" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K44" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L44" t="n">
-        <v>4.230747842500691</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M44" t="n">
-        <v>32.43453627398296</v>
+        <v>24.73914233763687</v>
       </c>
       <c r="N44" t="n">
-        <v>60.63832470546522</v>
+        <v>47.62862917339436</v>
       </c>
       <c r="O44" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="P44" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="R44" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="S44" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="T44" t="n">
-        <v>88.84211313694749</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="U44" t="n">
-        <v>60.065673557841</v>
+        <v>70.51811600915184</v>
       </c>
       <c r="V44" t="n">
-        <v>60.065673557841</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="W44" t="n">
-        <v>31.2892339787345</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="X44" t="n">
-        <v>2.512794399628014</v>
+        <v>47.16387987431102</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.279094014665234</v>
+        <v>47.16387987431102</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="C45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="D45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="E45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="F45" t="n">
-        <v>88.6084127519847</v>
+        <v>71.91236390640184</v>
       </c>
       <c r="G45" t="n">
-        <v>59.83197317287821</v>
+        <v>48.55812777156102</v>
       </c>
       <c r="H45" t="n">
-        <v>31.05553359377172</v>
+        <v>25.20389163672021</v>
       </c>
       <c r="I45" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J45" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K45" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L45" t="n">
-        <v>30.4828824461475</v>
+        <v>3.224055182105332</v>
       </c>
       <c r="M45" t="n">
-        <v>58.68667087762977</v>
+        <v>26.11354201786281</v>
       </c>
       <c r="N45" t="n">
-        <v>61.93809307172064</v>
+        <v>49.00302885362029</v>
       </c>
       <c r="O45" t="n">
-        <v>90.14188150320291</v>
+        <v>71.89251568937777</v>
       </c>
       <c r="P45" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="R45" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="S45" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="T45" t="n">
-        <v>113.9547007332617</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="U45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="V45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="W45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="X45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
       <c r="Y45" t="n">
-        <v>88.6084127519847</v>
+        <v>92.48277509396962</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="C46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="D46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="E46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="F46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="G46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="H46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="I46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="J46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="K46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="L46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="M46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="N46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="O46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="P46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="R46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="S46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="T46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="U46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="V46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="W46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="X46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.279094014665234</v>
+        <v>1.849655501879393</v>
       </c>
     </row>
   </sheetData>
@@ -23047,7 +23047,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L8" t="n">
         <v>40.1028531396922</v>
@@ -23059,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P8" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q8" t="n">
         <v>101.8249850515391</v>
@@ -23208,7 +23208,7 @@
         <v>75.64987151995348</v>
       </c>
       <c r="L10" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M10" t="n">
         <v>59.1959110048432</v>
@@ -23281,10 +23281,10 @@
         <v>192.4573254860788</v>
       </c>
       <c r="J11" t="n">
-        <v>79.46749020986019</v>
+        <v>79.46749020986022</v>
       </c>
       <c r="K11" t="n">
-        <v>56.57491319468375</v>
+        <v>56.57491319468377</v>
       </c>
       <c r="L11" t="n">
         <v>24.71128406284015</v>
@@ -23299,10 +23299,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.51638489689412</v>
+        <v>42.51638489689415</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.29242921516939</v>
+        <v>91.29242921516942</v>
       </c>
       <c r="R11" t="n">
         <v>158.355936723486</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.98567517487724</v>
+        <v>56.98567517487726</v>
       </c>
       <c r="R12" t="n">
         <v>122.3812483112375</v>
@@ -23448,16 +23448,16 @@
         <v>53.44770209726541</v>
       </c>
       <c r="M13" t="n">
-        <v>52.33785008490106</v>
+        <v>52.33785008490108</v>
       </c>
       <c r="N13" t="n">
-        <v>41.41036126824763</v>
+        <v>41.41036126824764</v>
       </c>
       <c r="O13" t="n">
-        <v>63.28146248584991</v>
+        <v>63.28146248584993</v>
       </c>
       <c r="P13" t="n">
-        <v>77.63873325000012</v>
+        <v>77.63873325000013</v>
       </c>
       <c r="Q13" t="n">
         <v>122.2551447347503</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>364.1058224085559</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23503,28 +23503,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>360.8637701183442</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.5787878714249</v>
+        <v>417.5157857900202</v>
       </c>
       <c r="H14" t="n">
-        <v>334.1237210430571</v>
+        <v>333.4785009768702</v>
       </c>
       <c r="I14" t="n">
-        <v>192.4573254860788</v>
+        <v>190.0284377427205</v>
       </c>
       <c r="J14" t="n">
-        <v>79.46749020986019</v>
+        <v>74.12026730323007</v>
       </c>
       <c r="K14" t="n">
-        <v>56.57491319468375</v>
+        <v>48.5608121821887</v>
       </c>
       <c r="L14" t="n">
-        <v>24.71128406284015</v>
+        <v>14.76908310155312</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23536,25 +23536,25 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.51638489689412</v>
+        <v>33.45660683828299</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.29242921516939</v>
+        <v>84.48891319686746</v>
       </c>
       <c r="R14" t="n">
-        <v>158.355936723486</v>
+        <v>154.3983822274421</v>
       </c>
       <c r="S14" t="n">
-        <v>198.8187567921908</v>
+        <v>197.383096862179</v>
       </c>
       <c r="T14" t="n">
-        <v>216.952923162988</v>
+        <v>216.6771315516385</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0497906853519</v>
+        <v>250.0447505188395</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>310.26464166586</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23588,19 +23588,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.0707740458651</v>
+        <v>148.0370649605172</v>
       </c>
       <c r="H15" t="n">
-        <v>119.227741234312</v>
+        <v>118.9021824363471</v>
       </c>
       <c r="I15" t="n">
-        <v>90.72503104986799</v>
+        <v>89.56443315521588</v>
       </c>
       <c r="J15" t="n">
-        <v>70.51996274958896</v>
+        <v>67.33519341854424</v>
       </c>
       <c r="K15" t="n">
-        <v>24.21784236678039</v>
+        <v>18.77456431742922</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,28 +23618,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.98567517487724</v>
+        <v>52.68273999959635</v>
       </c>
       <c r="R15" t="n">
-        <v>122.3812483112375</v>
+        <v>109.6731861390671</v>
       </c>
       <c r="S15" t="n">
-        <v>179.0746866454165</v>
+        <v>178.4485551697666</v>
       </c>
       <c r="T15" t="n">
-        <v>212.2549141141216</v>
+        <v>212.1190428446713</v>
       </c>
       <c r="U15" t="n">
-        <v>237.183738547628</v>
+        <v>226.5663789013526</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>231.2991038917507</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>206.6977724961786</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -23667,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1358581311098</v>
+        <v>168.1075975663157</v>
       </c>
       <c r="H16" t="n">
-        <v>160.8017737771232</v>
+        <v>160.5505116646813</v>
       </c>
       <c r="I16" t="n">
-        <v>147.8643793287897</v>
+        <v>147.0145070711642</v>
       </c>
       <c r="J16" t="n">
-        <v>102.0962744798141</v>
+        <v>100.0982525488729</v>
       </c>
       <c r="K16" t="n">
-        <v>70.56688024483543</v>
+        <v>67.28351644421453</v>
       </c>
       <c r="L16" t="n">
-        <v>53.44770209726541</v>
+        <v>49.24612685506241</v>
       </c>
       <c r="M16" t="n">
-        <v>52.33785008490106</v>
+        <v>47.90787809631685</v>
       </c>
       <c r="N16" t="n">
-        <v>41.41036126824763</v>
+        <v>37.0857241120777</v>
       </c>
       <c r="O16" t="n">
-        <v>63.28146248584991</v>
+        <v>59.28696010931989</v>
       </c>
       <c r="P16" t="n">
-        <v>77.63873325000012</v>
+        <v>74.22074639526926</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2551447347503</v>
+        <v>119.8887078045845</v>
       </c>
       <c r="R16" t="n">
-        <v>178.0292477626592</v>
+        <v>176.7585500038273</v>
       </c>
       <c r="S16" t="n">
-        <v>225.5930852933272</v>
+        <v>225.100580723234</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3478230490496</v>
+        <v>221.2270733631113</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6257433251451</v>
+        <v>288.6242018397927</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23737,7 +23737,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>314.6514658687349</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23746,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>404.7713884550461</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H17" t="n">
-        <v>321.3780980716213</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I17" t="n">
-        <v>189.5441099127741</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J17" t="n">
-        <v>73.05401429351835</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K17" t="n">
-        <v>46.96277531820996</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L17" t="n">
-        <v>12.78657706370183</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23773,28 +23773,28 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>18.9182241709407</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.13227077559463</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R17" t="n">
-        <v>153.6092334550442</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S17" t="n">
-        <v>197.0968217717205</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T17" t="n">
-        <v>216.6221378398017</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0437454938373</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>299.1393952539371</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>314.7757700522745</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23825,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>135.2985087407828</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H18" t="n">
-        <v>106.1054304690452</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I18" t="n">
-        <v>78.11880644948344</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J18" t="n">
-        <v>66.70014043052433</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K18" t="n">
-        <v>17.68915761115147</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,22 +23855,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.09288671463451</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R18" t="n">
-        <v>119.8709932279693</v>
+        <v>94.70199394922429</v>
       </c>
       <c r="S18" t="n">
-        <v>178.3237025907655</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T18" t="n">
-        <v>212.0919496876224</v>
+        <v>188.838281008837</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1810786277177</v>
+        <v>214.0582144259562</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>220.2842138397101</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1019623211064</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H19" t="n">
-        <v>160.5004092118201</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I19" t="n">
-        <v>146.8450398788689</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J19" t="n">
-        <v>99.69984071257284</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K19" t="n">
-        <v>66.62880340989354</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L19" t="n">
-        <v>48.40831958093992</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M19" t="n">
-        <v>47.02452779500256</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N19" t="n">
-        <v>36.22337790654365</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O19" t="n">
-        <v>58.49044381373126</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P19" t="n">
-        <v>73.53918910195107</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q19" t="n">
-        <v>119.4168328625555</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R19" t="n">
-        <v>176.5051688874148</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S19" t="n">
-        <v>225.0023737680859</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T19" t="n">
-        <v>221.2029954972168</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6238944627813</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23971,34 +23971,34 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>338.2337533797219</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>358.7470775391891</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>390.4674151175665</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.5032229774932</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H20" t="n">
-        <v>333.3498420730783</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I20" t="n">
-        <v>189.5441099127742</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J20" t="n">
-        <v>73.05401429351838</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K20" t="n">
-        <v>46.96277531821002</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L20" t="n">
-        <v>12.78657706370188</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24010,31 +24010,31 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>31.65005869338779</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.13227077559469</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R20" t="n">
-        <v>153.6092334550443</v>
+        <v>126.6153482671193</v>
       </c>
       <c r="S20" t="n">
-        <v>197.0968217717205</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T20" t="n">
-        <v>216.6221378398017</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0437454938373</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>314.7757700522745</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>338.0423259394912</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.5362945502944</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>146.4404805541315</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -24062,19 +24062,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.0303432632298</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H21" t="n">
-        <v>118.8372649914922</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I21" t="n">
-        <v>89.33300629685479</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J21" t="n">
-        <v>66.70014043052434</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K21" t="n">
-        <v>17.6891576111515</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.09288671463457</v>
+        <v>27.24880453827045</v>
       </c>
       <c r="R21" t="n">
-        <v>119.8709932279693</v>
+        <v>94.70199394922429</v>
       </c>
       <c r="S21" t="n">
-        <v>178.3237025907655</v>
+        <v>154.5902245692691</v>
       </c>
       <c r="T21" t="n">
-        <v>212.0919496876224</v>
+        <v>188.838281008837</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1810786277177</v>
+        <v>237.1789081994486</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24113,7 +24113,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>204.5810799170236</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1019623211064</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H22" t="n">
-        <v>160.5004092118201</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I22" t="n">
-        <v>146.8450398788689</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J22" t="n">
-        <v>99.69984071257285</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K22" t="n">
-        <v>66.62880340989356</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L22" t="n">
-        <v>48.40831958093995</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M22" t="n">
-        <v>47.02452779500258</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N22" t="n">
-        <v>36.22337790654369</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O22" t="n">
-        <v>58.49044381373129</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P22" t="n">
-        <v>73.5391891019511</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.4168328625555</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R22" t="n">
-        <v>176.5051688874149</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S22" t="n">
-        <v>225.0023737680859</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T22" t="n">
-        <v>221.2029954972168</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6238944627813</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24217,25 +24217,25 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>374.9859380895783</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>376.1891946204209</v>
+        <v>396.1988965173721</v>
       </c>
       <c r="H23" t="n">
-        <v>291.1715844795897</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I23" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J23" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K23" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24247,25 +24247,25 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.03330851896712</v>
+        <v>40.84753951961747</v>
       </c>
       <c r="R23" t="n">
-        <v>147.7347424747071</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S23" t="n">
-        <v>194.9657655049992</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T23" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0362640017325</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>285.2535380054592</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24290,28 +24290,28 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>122.865290127743</v>
+        <v>123.5460694728857</v>
       </c>
       <c r="E24" t="n">
-        <v>130.6070621340372</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>117.6029294141659</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9803063735219</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3540139777347</v>
+        <v>82.89240051788087</v>
       </c>
       <c r="I24" t="n">
-        <v>87.6102449626148</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J24" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K24" t="n">
-        <v>9.609297223544615</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.43755615788146</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R24" t="n">
-        <v>116.7643168652303</v>
+        <v>98.8050043669941</v>
       </c>
       <c r="S24" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8902659084929</v>
+        <v>211.9589747823294</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1777867270791</v>
+        <v>237.1789081994486</v>
       </c>
       <c r="V24" t="n">
-        <v>199.4284112096398</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>231.0783379733188</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H25" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I25" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J25" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K25" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L25" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M25" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N25" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O25" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P25" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q25" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R25" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S25" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>332.8667306720708</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24457,22 +24457,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4097043261834</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H26" t="n">
-        <v>332.3920941853522</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I26" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J26" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K26" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24484,34 +24484,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q26" t="n">
-        <v>73.03330851896712</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R26" t="n">
-        <v>119.521430924272</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S26" t="n">
-        <v>194.9657655049992</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T26" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0362640017325</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>302.270218222074</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>324.1564686910133</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.0650577126874</v>
+        <v>361.0429000260769</v>
       </c>
     </row>
     <row r="27">
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>121.282578648231</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H27" t="n">
-        <v>77.13350427197221</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I27" t="n">
-        <v>46.38973525685232</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J27" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,31 +24566,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.43755615788146</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R27" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S27" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8902659084929</v>
+        <v>211.9589747823294</v>
       </c>
       <c r="U27" t="n">
-        <v>195.9572770213166</v>
+        <v>218.161224843726</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>205.0226753117094</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>231.0783379733188</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>187.7580405303328</v>
       </c>
     </row>
     <row r="28">
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H28" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I28" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J28" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K28" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L28" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M28" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N28" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O28" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P28" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R28" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S28" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,22 +24694,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4097043261834</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H29" t="n">
-        <v>304.178782634917</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I29" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J29" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K29" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24721,25 +24721,25 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.81279881320464</v>
+        <v>40.84753951961747</v>
       </c>
       <c r="R29" t="n">
-        <v>106.5142327689447</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S29" t="n">
-        <v>194.9657655049992</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T29" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0362640017325</v>
+        <v>214.4125671647246</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>299.6371162167791</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24761,7 +24761,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>146.2976418186034</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24773,19 +24773,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9803063735219</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H30" t="n">
-        <v>118.3540139777347</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I30" t="n">
-        <v>87.6102449626148</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J30" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K30" t="n">
-        <v>9.609297223544615</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,31 +24803,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.43755615788146</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R30" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S30" t="n">
-        <v>177.3942893104462</v>
+        <v>142.0846727390686</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8902659084929</v>
+        <v>176.3327291786366</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1777867270791</v>
+        <v>218.161224843726</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>230.397558628176</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>176.0924047337081</v>
+        <v>181.6866688357778</v>
       </c>
       <c r="Y30" t="n">
-        <v>182.1637764282631</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H31" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I31" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J31" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K31" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L31" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M31" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N31" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O31" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P31" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R31" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S31" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24928,25 +24928,25 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>367.5730040363206</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4097043261834</v>
+        <v>381.8153183060522</v>
       </c>
       <c r="H32" t="n">
-        <v>332.3920941853522</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I32" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J32" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K32" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24958,31 +24958,31 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.03330851896712</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R32" t="n">
-        <v>147.7347424747071</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S32" t="n">
-        <v>194.9657655049992</v>
+        <v>174.4490983730374</v>
       </c>
       <c r="T32" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0362640017325</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V32" t="n">
-        <v>279.6592739033895</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>296.6759541200044</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>331.5694027442709</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -25010,19 +25010,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9803063735219</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H33" t="n">
-        <v>118.3540139777347</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I33" t="n">
-        <v>87.6102449626148</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J33" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,31 +25040,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.43755615788146</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R33" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S33" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8902659084929</v>
+        <v>211.9589747823294</v>
       </c>
       <c r="U33" t="n">
-        <v>210.4800590017881</v>
+        <v>205.7993110717159</v>
       </c>
       <c r="V33" t="n">
-        <v>199.4284112096398</v>
+        <v>205.0226753117094</v>
       </c>
       <c r="W33" t="n">
-        <v>225.4840738712491</v>
+        <v>231.0783379733188</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>182.1637764282631</v>
+        <v>187.7580405303328</v>
       </c>
     </row>
     <row r="34">
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I34" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J34" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K34" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L34" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M34" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N34" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O34" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P34" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R34" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S34" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,22 +25168,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>376.1891946204209</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H35" t="n">
-        <v>332.3920941853522</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I35" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J35" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K35" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25195,28 +25195,28 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q35" t="n">
-        <v>31.81279881320464</v>
+        <v>40.84753951961747</v>
       </c>
       <c r="R35" t="n">
-        <v>147.7347424747071</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S35" t="n">
-        <v>184.9544136912932</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T35" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0362640017325</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>285.2535380054592</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>316.6537964333939</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25238,28 +25238,28 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>122.865290127743</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>117.6029294141659</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>106.7597966677594</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H36" t="n">
-        <v>118.3540139777347</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I36" t="n">
-        <v>87.6102449626148</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J36" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K36" t="n">
-        <v>9.609297223544615</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.43755615788146</v>
+        <v>11.98726601026972</v>
       </c>
       <c r="R36" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8902659084929</v>
+        <v>211.9589747823294</v>
       </c>
       <c r="U36" t="n">
-        <v>195.9572770213166</v>
+        <v>205.7993110717159</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>205.0226753117094</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>231.0783379733188</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H37" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I37" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J37" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K37" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L37" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M37" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N37" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O37" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P37" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q37" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R37" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S37" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25399,28 +25399,28 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2362446692632</v>
       </c>
       <c r="F38" t="n">
-        <v>361.978739934251</v>
+        <v>367.5730040363206</v>
       </c>
       <c r="G38" t="n">
-        <v>389.1963927757482</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H38" t="n">
-        <v>332.3920941853522</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I38" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J38" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K38" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25432,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.03330851896712</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R38" t="n">
-        <v>147.7347424747071</v>
+        <v>114.1097964369188</v>
       </c>
       <c r="S38" t="n">
-        <v>194.9657655049992</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T38" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U38" t="n">
-        <v>208.8157542959701</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25472,7 +25472,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>151.8919059206731</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25484,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9803063735219</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H39" t="n">
-        <v>118.3540139777347</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I39" t="n">
-        <v>87.6102449626148</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J39" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K39" t="n">
-        <v>9.609297223544615</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,31 +25514,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.43755615788146</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R39" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8902659084929</v>
+        <v>211.9589747823294</v>
       </c>
       <c r="U39" t="n">
-        <v>200.8707617782435</v>
+        <v>237.1789081994486</v>
       </c>
       <c r="V39" t="n">
-        <v>199.4284112096398</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>225.4840738712491</v>
+        <v>235.324986449279</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>181.6866688357778</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.1637764282632</v>
+        <v>187.7580405303328</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H40" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I40" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J40" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K40" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L40" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M40" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N40" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O40" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P40" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q40" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R40" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S40" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25633,7 +25633,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>327.2540808145279</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,22 +25642,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.4097043261834</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H41" t="n">
-        <v>332.3920941853522</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I41" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J41" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K41" t="n">
-        <v>35.06685217666529</v>
+        <v>17.04183622781225</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.03330851896712</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R41" t="n">
-        <v>147.7347424747071</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S41" t="n">
-        <v>194.9657655049992</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T41" t="n">
-        <v>216.2127599436932</v>
+        <v>193.2315314972419</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0362640017325</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V41" t="n">
-        <v>292.3911084258366</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>309.4077886424515</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25721,19 +25721,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>119.4916311902065</v>
+        <v>147.9973527535379</v>
       </c>
       <c r="H42" t="n">
-        <v>118.3540139777347</v>
+        <v>118.5186461215737</v>
       </c>
       <c r="I42" t="n">
-        <v>87.6102449626148</v>
+        <v>88.19714883597368</v>
       </c>
       <c r="J42" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K42" t="n">
-        <v>9.609297223544615</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,25 +25751,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.43755615788146</v>
+        <v>39.6107183102805</v>
       </c>
       <c r="R42" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S42" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8902659084929</v>
+        <v>188.838281008837</v>
       </c>
       <c r="U42" t="n">
-        <v>208.6891115437637</v>
+        <v>214.0582144259562</v>
       </c>
       <c r="V42" t="n">
-        <v>212.1602457320868</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.6117584755474</v>
+        <v>243.5838898035192</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H43" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I43" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J43" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K43" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L43" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M43" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N43" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O43" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P43" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R43" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S43" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25870,31 +25870,31 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>316.0317712870124</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>380.0785558665211</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4097043261834</v>
+        <v>417.4415639097451</v>
       </c>
       <c r="H44" t="n">
-        <v>332.3920941853522</v>
+        <v>332.7183761455029</v>
       </c>
       <c r="I44" t="n">
-        <v>185.9387321081544</v>
+        <v>187.1669987034149</v>
       </c>
       <c r="J44" t="n">
-        <v>65.1167356619161</v>
+        <v>67.82077799223171</v>
       </c>
       <c r="K44" t="n">
-        <v>35.06685217666529</v>
+        <v>39.11951067914558</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.05631373004104</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,34 +25906,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>18.20195973672924</v>
+        <v>22.78340767737399</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.03330851896712</v>
+        <v>76.47378512331031</v>
       </c>
       <c r="R44" t="n">
-        <v>147.7347424747071</v>
+        <v>149.7360420406117</v>
       </c>
       <c r="S44" t="n">
-        <v>194.9657655049992</v>
+        <v>195.6917657654103</v>
       </c>
       <c r="T44" t="n">
-        <v>216.2127599436932</v>
+        <v>216.3522252707343</v>
       </c>
       <c r="U44" t="n">
-        <v>221.5475888184171</v>
+        <v>250.0388127684175</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>297.7590898356596</v>
       </c>
       <c r="W44" t="n">
-        <v>309.4077886424515</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>331.2940391113907</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.0542040373367</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25955,22 +25955,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>138.4587320442362</v>
       </c>
       <c r="G45" t="n">
-        <v>119.4916311902065</v>
+        <v>124.8766589800455</v>
       </c>
       <c r="H45" t="n">
-        <v>89.86533879441927</v>
+        <v>95.3979523480813</v>
       </c>
       <c r="I45" t="n">
-        <v>59.12156977929938</v>
+        <v>65.07645506248127</v>
       </c>
       <c r="J45" t="n">
-        <v>61.97275165334425</v>
+        <v>63.58326074073577</v>
       </c>
       <c r="K45" t="n">
-        <v>9.609297223544615</v>
+        <v>12.36191377201004</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.43755615788146</v>
+        <v>47.61351161396256</v>
       </c>
       <c r="R45" t="n">
-        <v>116.7643168652303</v>
+        <v>117.8226877227167</v>
       </c>
       <c r="S45" t="n">
-        <v>177.3942893104462</v>
+        <v>177.7109183427615</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8902659084929</v>
+        <v>211.9589747823294</v>
       </c>
       <c r="U45" t="n">
-        <v>212.0849616256149</v>
+        <v>237.1789081994486</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0600130736233</v>
+        <v>168.0743041860038</v>
       </c>
       <c r="H46" t="n">
-        <v>160.1274422660167</v>
+        <v>160.254503246999</v>
       </c>
       <c r="I46" t="n">
-        <v>145.5835116000163</v>
+        <v>146.0132843250566</v>
       </c>
       <c r="J46" t="n">
-        <v>96.73402891552419</v>
+        <v>97.74441056081992</v>
       </c>
       <c r="K46" t="n">
-        <v>61.75506356595864</v>
+        <v>63.41543098615659</v>
       </c>
       <c r="L46" t="n">
-        <v>42.17161055060257</v>
+        <v>44.29630920396073</v>
       </c>
       <c r="M46" t="n">
-        <v>40.44879257364343</v>
+        <v>42.6889893988761</v>
       </c>
       <c r="N46" t="n">
-        <v>29.80399897125756</v>
+        <v>31.99092892307229</v>
       </c>
       <c r="O46" t="n">
-        <v>52.56110836040575</v>
+        <v>54.58109213577647</v>
       </c>
       <c r="P46" t="n">
-        <v>68.46561829727892</v>
+        <v>70.19406338008908</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.9041554210466</v>
+        <v>117.1008412041016</v>
       </c>
       <c r="R46" t="n">
-        <v>174.6189781778607</v>
+        <v>175.2615585581658</v>
       </c>
       <c r="S46" t="n">
-        <v>224.2713127914956</v>
+        <v>224.5203679045253</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0237578034258</v>
+        <v>221.0848198290512</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6216063220095</v>
+        <v>288.6223858372302</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>339795.6271232968</v>
+        <v>353135.9310878098</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355796.0295166587</v>
+        <v>368851.9585841987</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355796.0295166586</v>
+        <v>368851.9585841988</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>381307.8196154397</v>
+        <v>374464.5624954259</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>381307.8196154395</v>
+        <v>374464.562495426</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381307.8196154396</v>
+        <v>374464.562495426</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381307.8196154396</v>
+        <v>374464.562495426</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>381307.8196154396</v>
+        <v>374464.562495426</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>381307.8196154396</v>
+        <v>374464.562495426</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375593.6580008187</v>
+        <v>368851.9585841987</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375593.6580008187</v>
+        <v>368851.9585841988</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>81417.42996915219</v>
       </c>
       <c r="D2" t="n">
-        <v>81417.42996915219</v>
+        <v>81417.42996915217</v>
       </c>
       <c r="E2" t="n">
-        <v>84948.90678082421</v>
+        <v>84948.9067808242</v>
       </c>
       <c r="F2" t="n">
-        <v>84948.90678082421</v>
+        <v>88283.98277195248</v>
       </c>
       <c r="G2" t="n">
-        <v>88949.00737916464</v>
+        <v>92212.98964604967</v>
       </c>
       <c r="H2" t="n">
-        <v>88949.00737916464</v>
+        <v>92212.98964604968</v>
       </c>
       <c r="I2" t="n">
-        <v>95326.95490385989</v>
+        <v>93616.14062385644</v>
       </c>
       <c r="J2" t="n">
-        <v>95326.95490385989</v>
+        <v>93616.14062385645</v>
       </c>
       <c r="K2" t="n">
-        <v>95326.95490385988</v>
+        <v>93616.14062385644</v>
       </c>
       <c r="L2" t="n">
-        <v>95326.95490385992</v>
+        <v>93616.14062385645</v>
       </c>
       <c r="M2" t="n">
-        <v>95326.95490385994</v>
+        <v>93616.14062385645</v>
       </c>
       <c r="N2" t="n">
-        <v>95326.95490385992</v>
+        <v>93616.14062385645</v>
       </c>
       <c r="O2" t="n">
-        <v>93898.4145002047</v>
+        <v>92212.98964604968</v>
       </c>
       <c r="P2" t="n">
-        <v>93898.41450020467</v>
+        <v>92212.98964604967</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>19491.79317712233</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15429.18461915175</v>
       </c>
       <c r="G3" t="n">
-        <v>18103.84713380762</v>
+        <v>17782.08774695437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25086.75971804783</v>
+        <v>3325.488848238729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2599.934870744657</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.475558256376083</v>
       </c>
       <c r="G4" t="n">
-        <v>7.766804871860037</v>
+        <v>14.10432382891441</v>
       </c>
       <c r="H4" t="n">
-        <v>7.766804871860017</v>
+        <v>14.10432382891441</v>
       </c>
       <c r="I4" t="n">
-        <v>23.86096026473162</v>
+        <v>20.23992651292681</v>
       </c>
       <c r="J4" t="n">
-        <v>23.86096026473163</v>
+        <v>20.23992651292681</v>
       </c>
       <c r="K4" t="n">
-        <v>23.86096026473163</v>
+        <v>20.23992651292681</v>
       </c>
       <c r="L4" t="n">
-        <v>23.86096026473162</v>
+        <v>20.23992651292681</v>
       </c>
       <c r="M4" t="n">
-        <v>23.86096026473163</v>
+        <v>20.23992651292681</v>
       </c>
       <c r="N4" t="n">
-        <v>23.86096026473162</v>
+        <v>20.23992651292681</v>
       </c>
       <c r="O4" t="n">
-        <v>17.61433643485175</v>
+        <v>14.10432382891441</v>
       </c>
       <c r="P4" t="n">
-        <v>17.61433643485175</v>
+        <v>14.10432382891441</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>9034.86667628599</v>
       </c>
       <c r="F5" t="n">
-        <v>9034.86667628599</v>
+        <v>10021.91184337599</v>
       </c>
       <c r="G5" t="n">
-        <v>10218.73174381929</v>
+        <v>11184.73609591395</v>
       </c>
       <c r="H5" t="n">
-        <v>10218.73174381929</v>
+        <v>11184.73609591395</v>
       </c>
       <c r="I5" t="n">
-        <v>12457.97146135491</v>
+        <v>11945.07364719013</v>
       </c>
       <c r="J5" t="n">
-        <v>12457.97146135491</v>
+        <v>11945.07364719013</v>
       </c>
       <c r="K5" t="n">
-        <v>12457.97146135491</v>
+        <v>11945.07364719013</v>
       </c>
       <c r="L5" t="n">
-        <v>12457.97146135491</v>
+        <v>11945.07364719013</v>
       </c>
       <c r="M5" t="n">
-        <v>12457.97146135491</v>
+        <v>11945.07364719013</v>
       </c>
       <c r="N5" t="n">
-        <v>12457.9714613549</v>
+        <v>11945.07364719013</v>
       </c>
       <c r="O5" t="n">
-        <v>11683.87592239013</v>
+        <v>11184.73609591395</v>
       </c>
       <c r="P5" t="n">
-        <v>11683.87592239013</v>
+        <v>11184.73609591395</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-314037.0495127108</v>
+        <v>-330683.5000650168</v>
       </c>
       <c r="C6" t="n">
-        <v>13566.97992903455</v>
+        <v>-2710.453080346548</v>
       </c>
       <c r="D6" t="n">
-        <v>39283.86484197825</v>
+        <v>23006.43183259714</v>
       </c>
       <c r="E6" t="n">
-        <v>56422.24692741589</v>
+        <v>40397.06226172564</v>
       </c>
       <c r="F6" t="n">
-        <v>75914.04010453822</v>
+        <v>47039.44579913015</v>
       </c>
       <c r="G6" t="n">
-        <v>60618.66169666587</v>
+        <v>47725.73987546402</v>
       </c>
       <c r="H6" t="n">
-        <v>78722.5088304735</v>
+        <v>65507.82762241841</v>
       </c>
       <c r="I6" t="n">
-        <v>57758.36276419242</v>
+        <v>62919.24166786957</v>
       </c>
       <c r="J6" t="n">
-        <v>82845.12248224026</v>
+        <v>66244.73051610832</v>
       </c>
       <c r="K6" t="n">
-        <v>82845.12248224024</v>
+        <v>66244.73051610831</v>
       </c>
       <c r="L6" t="n">
-        <v>82845.12248224029</v>
+        <v>66244.73051610832</v>
       </c>
       <c r="M6" t="n">
-        <v>82845.1224822403</v>
+        <v>66244.73051610832</v>
       </c>
       <c r="N6" t="n">
-        <v>82845.12248224029</v>
+        <v>63644.79564536366</v>
       </c>
       <c r="O6" t="n">
-        <v>82196.92424137972</v>
+        <v>65507.82762241841</v>
       </c>
       <c r="P6" t="n">
-        <v>82196.92424137969</v>
+        <v>65507.82762241839</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>414.443425517706</v>
       </c>
       <c r="F3" t="n">
-        <v>414.443425517706</v>
+        <v>430.1151932671485</v>
       </c>
       <c r="G3" t="n">
-        <v>433.2401928832346</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="H3" t="n">
-        <v>433.2401928832344</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="I3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="J3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="K3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="L3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="M3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="N3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="O3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
       <c r="P3" t="n">
-        <v>456.5029573965389</v>
+        <v>448.5778859855783</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="G4" t="n">
-        <v>12.73183452244704</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="H4" t="n">
-        <v>12.731834522447</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="I4" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="J4" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="K4" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="L4" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="M4" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N4" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O4" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P4" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
     </row>
   </sheetData>
@@ -26971,16 +26971,16 @@
         <v>24.26153895009395</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.67176774944249</v>
       </c>
       <c r="G3" t="n">
-        <v>18.79676736552858</v>
+        <v>18.46269271842988</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.26276451330443</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="G4" t="n">
-        <v>12.73183452244704</v>
+        <v>12.50555183020041</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.48867518331548</v>
+        <v>12.50555183020043</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10.61514194329191</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="O4" t="n">
-        <v>12.73183452244704</v>
+        <v>12.50555183020041</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31521,13 +31521,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I8" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J8" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L8" t="n">
         <v>247.5321731236922</v>
@@ -31542,7 +31542,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P8" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q8" t="n">
         <v>169.3879565952893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H9" t="n">
         <v>8.105476549263036</v>
@@ -31627,16 +31627,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R9" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S9" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T9" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H10" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I10" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J10" t="n">
         <v>49.74499232518554</v>
@@ -31712,7 +31712,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T10" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U10" t="n">
         <v>0.03837854621976516</v>
@@ -31782,7 +31782,7 @@
         <v>239.5878699245347</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.920512431659</v>
+        <v>179.9205124316589</v>
       </c>
       <c r="R11" t="n">
         <v>104.6584194097552</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8914443492267639</v>
+        <v>0.8914443492267637</v>
       </c>
       <c r="H12" t="n">
         <v>8.6094756885848</v>
@@ -31937,16 +31937,16 @@
         <v>105.6355144253983</v>
       </c>
       <c r="P13" t="n">
-        <v>90.38943168995996</v>
+        <v>90.38943168995995</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.5809572531736</v>
+        <v>62.58095725317359</v>
       </c>
       <c r="R13" t="n">
         <v>33.60388823951759</v>
       </c>
       <c r="S13" t="n">
-        <v>13.02439420848266</v>
+        <v>13.02439420848265</v>
       </c>
       <c r="T13" t="n">
         <v>3.19325262284134</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.666104223186756</v>
+        <v>1.72910630459155</v>
       </c>
       <c r="H14" t="n">
-        <v>17.06298987571137</v>
+        <v>17.70820994189822</v>
       </c>
       <c r="I14" t="n">
-        <v>64.23248306440749</v>
+        <v>66.66137080776581</v>
       </c>
       <c r="J14" t="n">
-        <v>141.4085133126971</v>
+        <v>146.7557362193272</v>
       </c>
       <c r="K14" t="n">
-        <v>211.9347050801925</v>
+        <v>219.9488060926876</v>
       </c>
       <c r="L14" t="n">
-        <v>262.9237422005443</v>
+        <v>272.8659431618313</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>291.6375464805647</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>290.4990795311329</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344578</v>
+        <v>291.3349598777498</v>
       </c>
       <c r="P14" t="n">
-        <v>239.5878699245347</v>
+        <v>248.6476479831459</v>
       </c>
       <c r="Q14" t="n">
-        <v>179.920512431659</v>
+        <v>186.7240284499609</v>
       </c>
       <c r="R14" t="n">
-        <v>104.6584194097552</v>
+        <v>108.6159739057991</v>
       </c>
       <c r="S14" t="n">
-        <v>37.96634998586825</v>
+        <v>39.40200991587999</v>
       </c>
       <c r="T14" t="n">
-        <v>7.29337123700003</v>
+        <v>7.569162848349515</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.138328504367324</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8914443492267639</v>
+        <v>0.9251534345746213</v>
       </c>
       <c r="H15" t="n">
-        <v>8.6094756885848</v>
+        <v>8.935034486549633</v>
       </c>
       <c r="I15" t="n">
-        <v>30.692272550132</v>
+        <v>31.85287044478411</v>
       </c>
       <c r="J15" t="n">
-        <v>84.2219417837444</v>
+        <v>87.40671111478912</v>
       </c>
       <c r="K15" t="n">
-        <v>143.9487131819376</v>
+        <v>149.3919912312887</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>179.6514852747385</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>184.0186633281543</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>170.8520306849586</v>
       </c>
       <c r="O15" t="n">
-        <v>173.9674182222222</v>
+        <v>184.1536655415428</v>
       </c>
       <c r="P15" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.792089210069</v>
+        <v>118.0950243853499</v>
       </c>
       <c r="R15" t="n">
-        <v>55.34774652479857</v>
+        <v>57.44066675367694</v>
       </c>
       <c r="S15" t="n">
-        <v>16.55818780252343</v>
+        <v>17.18431927817333</v>
       </c>
       <c r="T15" t="n">
-        <v>3.59314630236577</v>
+        <v>3.729017571816125</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05864765455439238</v>
+        <v>0.06086535753780405</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7473569968352074</v>
+        <v>0.7756175616292841</v>
       </c>
       <c r="H16" t="n">
-        <v>6.644683117316667</v>
+        <v>6.895945229758548</v>
       </c>
       <c r="I16" t="n">
-        <v>22.4750631411897</v>
+        <v>23.3249353988152</v>
       </c>
       <c r="J16" t="n">
-        <v>52.83813967624916</v>
+        <v>54.83616160719038</v>
       </c>
       <c r="K16" t="n">
-        <v>86.82929472321771</v>
+        <v>90.11265852383862</v>
       </c>
       <c r="L16" t="n">
-        <v>111.1116029658453</v>
+        <v>115.3131782080483</v>
       </c>
       <c r="M16" t="n">
-        <v>117.1516063311771</v>
+        <v>121.5815783197613</v>
       </c>
       <c r="N16" t="n">
-        <v>114.3660029793369</v>
+        <v>118.6906401355068</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6355144253983</v>
+        <v>109.6300168019283</v>
       </c>
       <c r="P16" t="n">
-        <v>90.38943168995996</v>
+        <v>93.80741854469082</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.5809572531736</v>
+        <v>64.94739418333941</v>
       </c>
       <c r="R16" t="n">
-        <v>33.60388823951759</v>
+        <v>34.87458599834944</v>
       </c>
       <c r="S16" t="n">
-        <v>13.02439420848266</v>
+        <v>13.51689877857579</v>
       </c>
       <c r="T16" t="n">
-        <v>3.19325262284134</v>
+        <v>3.314002308779668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04076492710010227</v>
+        <v>0.04230641245250645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.741669117118529</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H17" t="n">
-        <v>17.83686884569014</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I17" t="n">
-        <v>67.14569863771217</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J17" t="n">
-        <v>147.8219892290389</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K17" t="n">
-        <v>221.5468429566663</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L17" t="n">
-        <v>274.8484491996826</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M17" t="n">
-        <v>293.7542390597198</v>
+        <v>304.1430983107651</v>
       </c>
       <c r="N17" t="n">
-        <v>292.615772110288</v>
+        <v>303.0046313613333</v>
       </c>
       <c r="O17" t="n">
-        <v>293.4516524569049</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P17" t="n">
-        <v>250.4541961280411</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.0806708712337</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R17" t="n">
-        <v>109.4051226781969</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S17" t="n">
-        <v>39.68828500633853</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T17" t="n">
-        <v>7.624156560186367</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1393335293694823</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9318751318620517</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H18" t="n">
-        <v>8.999951931404553</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I18" t="n">
-        <v>32.08429730314521</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J18" t="n">
-        <v>88.04176410280903</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K18" t="n">
-        <v>150.4773979375665</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L18" t="n">
-        <v>181.2537602974311</v>
+        <v>170.4246258367253</v>
       </c>
       <c r="M18" t="n">
-        <v>186.1353559073094</v>
+        <v>196.5242151583548</v>
       </c>
       <c r="N18" t="n">
-        <v>172.9687232641137</v>
+        <v>183.3575825151591</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>197.0881119957146</v>
       </c>
       <c r="P18" t="n">
-        <v>176.1806115679299</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.9530431478647</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R18" t="n">
-        <v>57.85800160806671</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S18" t="n">
-        <v>17.3091718571745</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T18" t="n">
-        <v>3.756110728865023</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06130757446460869</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7812528068386196</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H19" t="n">
-        <v>6.946047682619732</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I19" t="n">
-        <v>23.4944025911105</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J19" t="n">
-        <v>55.2345734434904</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K19" t="n">
-        <v>90.76737155815961</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L19" t="n">
-        <v>116.1509854821708</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M19" t="n">
-        <v>122.4649286210756</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N19" t="n">
-        <v>119.5529863410408</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O19" t="n">
-        <v>110.4265330975169</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P19" t="n">
-        <v>94.48897583800901</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.41926912536842</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R19" t="n">
-        <v>35.12796711476192</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S19" t="n">
-        <v>13.61510573372394</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T19" t="n">
-        <v>3.338080174674101</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04261378946392475</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.741669117118529</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H20" t="n">
-        <v>17.83686884569014</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I20" t="n">
-        <v>67.14569863771216</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J20" t="n">
-        <v>147.8219892290389</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K20" t="n">
-        <v>221.5468429566663</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L20" t="n">
-        <v>274.8484491996825</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M20" t="n">
-        <v>293.7542390597197</v>
+        <v>304.1430983107651</v>
       </c>
       <c r="N20" t="n">
-        <v>292.6157721102879</v>
+        <v>303.0046313613333</v>
       </c>
       <c r="O20" t="n">
-        <v>293.4516524569048</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P20" t="n">
-        <v>250.4541961280411</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.0806708712337</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R20" t="n">
-        <v>109.4051226781969</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S20" t="n">
-        <v>39.68828500633852</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T20" t="n">
-        <v>7.624156560186365</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1393335293694823</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9318751318620515</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H21" t="n">
-        <v>8.999951931404551</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I21" t="n">
-        <v>32.0842973031452</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J21" t="n">
-        <v>88.04176410280901</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K21" t="n">
-        <v>150.4773979375665</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L21" t="n">
-        <v>181.253760297431</v>
+        <v>192.1570371049389</v>
       </c>
       <c r="M21" t="n">
-        <v>186.1353559073094</v>
+        <v>196.5242151583548</v>
       </c>
       <c r="N21" t="n">
-        <v>172.9687232641137</v>
+        <v>183.3575825151591</v>
       </c>
       <c r="O21" t="n">
-        <v>186.6992527446692</v>
+        <v>196.1539425503209</v>
       </c>
       <c r="P21" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.9530431478647</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R21" t="n">
-        <v>57.85800160806669</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S21" t="n">
-        <v>17.3091718571745</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T21" t="n">
-        <v>3.756110728865022</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06130757446460867</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7812528068386194</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H22" t="n">
-        <v>6.946047682619731</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I22" t="n">
-        <v>23.49440259111049</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J22" t="n">
-        <v>55.23457344349039</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K22" t="n">
-        <v>90.76737155815958</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L22" t="n">
-        <v>116.1509854821708</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M22" t="n">
-        <v>122.4649286210756</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N22" t="n">
-        <v>119.5529863410408</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O22" t="n">
-        <v>110.4265330975169</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P22" t="n">
-        <v>94.48897583800898</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.4192691253684</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R22" t="n">
-        <v>35.12796711476192</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S22" t="n">
-        <v>13.61510573372393</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T22" t="n">
-        <v>3.3380801746741</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04261378946392474</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H23" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I23" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J23" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K23" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L23" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M23" t="n">
-        <v>322.2429142430352</v>
+        <v>316.6486501409656</v>
       </c>
       <c r="N23" t="n">
-        <v>321.1044472936034</v>
+        <v>315.5101831915338</v>
       </c>
       <c r="O23" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P23" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R23" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S23" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T23" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H24" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I24" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J24" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K24" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L24" t="n">
-        <v>210.256853037209</v>
+        <v>204.6625889351394</v>
       </c>
       <c r="M24" t="n">
-        <v>214.6240310906248</v>
+        <v>209.0297669885552</v>
       </c>
       <c r="N24" t="n">
-        <v>201.4573984474291</v>
+        <v>173.6254482557236</v>
       </c>
       <c r="O24" t="n">
-        <v>189.4691000307228</v>
+        <v>209.593663825915</v>
       </c>
       <c r="P24" t="n">
-        <v>187.502129803118</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q24" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R24" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S24" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T24" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H25" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I25" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J25" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K25" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L25" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M25" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N25" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O25" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P25" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R25" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S25" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T25" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H26" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I26" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J26" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K26" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L26" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M26" t="n">
-        <v>322.2429142430352</v>
+        <v>316.6486501409656</v>
       </c>
       <c r="N26" t="n">
-        <v>321.1044472936034</v>
+        <v>315.5101831915338</v>
       </c>
       <c r="O26" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P26" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R26" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S26" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T26" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H27" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I27" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J27" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K27" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L27" t="n">
-        <v>184.5380251399471</v>
+        <v>204.6625889351394</v>
       </c>
       <c r="M27" t="n">
-        <v>214.6240310906248</v>
+        <v>186.7920808989193</v>
       </c>
       <c r="N27" t="n">
-        <v>201.4573984474291</v>
+        <v>195.8631343453595</v>
       </c>
       <c r="O27" t="n">
-        <v>215.1879279279847</v>
+        <v>209.593663825915</v>
       </c>
       <c r="P27" t="n">
-        <v>187.502129803118</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q27" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R27" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S27" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T27" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H28" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I28" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J28" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K28" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L28" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M28" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N28" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O28" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P28" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R28" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S28" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T28" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H29" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I29" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J29" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K29" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L29" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M29" t="n">
-        <v>322.2429142430352</v>
+        <v>316.6486501409656</v>
       </c>
       <c r="N29" t="n">
-        <v>321.1044472936034</v>
+        <v>315.5101831915338</v>
       </c>
       <c r="O29" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P29" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q29" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R29" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S29" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T29" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H30" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I30" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J30" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K30" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L30" t="n">
-        <v>210.256853037209</v>
+        <v>204.6625889351394</v>
       </c>
       <c r="M30" t="n">
-        <v>188.9052031933629</v>
+        <v>186.7920808989193</v>
       </c>
       <c r="N30" t="n">
-        <v>201.4573984474291</v>
+        <v>195.8631343453595</v>
       </c>
       <c r="O30" t="n">
-        <v>215.1879279279847</v>
+        <v>209.593663825915</v>
       </c>
       <c r="P30" t="n">
-        <v>187.502129803118</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q30" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R30" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S30" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T30" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H31" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I31" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J31" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K31" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L31" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M31" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N31" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O31" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P31" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R31" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S31" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T31" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H32" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I32" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J32" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K32" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L32" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M32" t="n">
-        <v>322.2429142430352</v>
+        <v>316.6486501409656</v>
       </c>
       <c r="N32" t="n">
-        <v>321.1044472936034</v>
+        <v>315.5101831915338</v>
       </c>
       <c r="O32" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P32" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q32" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R32" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S32" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T32" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H33" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I33" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J33" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K33" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L33" t="n">
-        <v>210.256853037209</v>
+        <v>204.6625889351394</v>
       </c>
       <c r="M33" t="n">
-        <v>214.6240310906248</v>
+        <v>209.0297669885552</v>
       </c>
       <c r="N33" t="n">
-        <v>175.7385705501672</v>
+        <v>195.8631343453595</v>
       </c>
       <c r="O33" t="n">
-        <v>215.1879279279847</v>
+        <v>187.3559777362791</v>
       </c>
       <c r="P33" t="n">
-        <v>187.502129803118</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q33" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R33" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S33" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T33" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H34" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I34" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J34" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K34" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L34" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M34" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N34" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O34" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P34" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R34" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S34" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T34" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H35" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I35" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J35" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K35" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L35" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M35" t="n">
-        <v>322.2429142430352</v>
+        <v>316.6486501409656</v>
       </c>
       <c r="N35" t="n">
-        <v>321.1044472936034</v>
+        <v>315.5101831915338</v>
       </c>
       <c r="O35" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P35" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q35" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R35" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S35" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T35" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H36" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I36" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J36" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K36" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L36" t="n">
-        <v>184.5380251399471</v>
+        <v>204.6625889351394</v>
       </c>
       <c r="M36" t="n">
-        <v>214.6240310906248</v>
+        <v>209.0297669885552</v>
       </c>
       <c r="N36" t="n">
-        <v>201.4573984474291</v>
+        <v>173.6254482557236</v>
       </c>
       <c r="O36" t="n">
-        <v>215.1879279279847</v>
+        <v>209.593663825915</v>
       </c>
       <c r="P36" t="n">
-        <v>187.502129803118</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q36" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R36" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S36" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T36" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H37" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I37" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J37" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K37" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L37" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M37" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N37" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O37" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P37" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R37" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S37" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T37" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H38" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I38" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J38" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K38" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L38" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M38" t="n">
-        <v>322.2429142430352</v>
+        <v>316.6486501409656</v>
       </c>
       <c r="N38" t="n">
-        <v>321.1044472936034</v>
+        <v>315.5101831915338</v>
       </c>
       <c r="O38" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P38" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q38" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R38" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S38" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T38" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H39" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I39" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J39" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K39" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L39" t="n">
-        <v>210.256853037209</v>
+        <v>182.4249028455034</v>
       </c>
       <c r="M39" t="n">
-        <v>214.6240310906248</v>
+        <v>209.0297669885552</v>
       </c>
       <c r="N39" t="n">
-        <v>201.4573984474291</v>
+        <v>195.8631343453595</v>
       </c>
       <c r="O39" t="n">
-        <v>213.5224527883579</v>
+        <v>209.593663825915</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R39" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S39" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T39" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H40" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I40" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J40" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K40" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L40" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M40" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N40" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O40" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P40" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R40" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S40" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T40" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H41" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I41" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J41" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K41" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L41" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M41" t="n">
-        <v>309.5110797205882</v>
+        <v>304.1430983107651</v>
       </c>
       <c r="N41" t="n">
-        <v>308.3726127711564</v>
+        <v>303.0046313613333</v>
       </c>
       <c r="O41" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P41" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q41" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R41" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S41" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T41" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H42" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I42" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J42" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K42" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L42" t="n">
-        <v>197.5250185147619</v>
+        <v>192.1570371049389</v>
       </c>
       <c r="M42" t="n">
-        <v>201.8921965681778</v>
+        <v>196.5242151583548</v>
       </c>
       <c r="N42" t="n">
-        <v>188.7255639249821</v>
+        <v>183.3575825151591</v>
       </c>
       <c r="O42" t="n">
-        <v>201.3050358223734</v>
+        <v>196.1539425503209</v>
       </c>
       <c r="P42" t="n">
         <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R42" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S42" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T42" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H43" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I43" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J43" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K43" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L43" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M43" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N43" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O43" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P43" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R43" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S43" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T43" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.835187768428296</v>
+        <v>1.803328184866645</v>
       </c>
       <c r="H44" t="n">
-        <v>18.79461673341629</v>
+        <v>18.46833477326554</v>
       </c>
       <c r="I44" t="n">
-        <v>70.75107644233194</v>
+        <v>69.52280984707141</v>
       </c>
       <c r="J44" t="n">
-        <v>155.7592678606412</v>
+        <v>153.0552255303256</v>
       </c>
       <c r="K44" t="n">
-        <v>233.442766098211</v>
+        <v>229.3901075957307</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6063937662485</v>
+        <v>284.5787125333434</v>
       </c>
       <c r="M44" t="n">
-        <v>309.5110797205882</v>
+        <v>304.1430983107651</v>
       </c>
       <c r="N44" t="n">
-        <v>308.3726127711564</v>
+        <v>303.0046313613333</v>
       </c>
       <c r="O44" t="n">
-        <v>309.2084931177732</v>
+        <v>303.8405117079502</v>
       </c>
       <c r="P44" t="n">
-        <v>263.9022950846996</v>
+        <v>259.3208471440549</v>
       </c>
       <c r="Q44" t="n">
-        <v>198.1796331278613</v>
+        <v>194.7391565235181</v>
       </c>
       <c r="R44" t="n">
-        <v>115.279613658534</v>
+        <v>113.2783140926295</v>
       </c>
       <c r="S44" t="n">
-        <v>41.81934127305983</v>
+        <v>41.09334101264872</v>
       </c>
       <c r="T44" t="n">
-        <v>8.033534456294868</v>
+        <v>7.894069129253744</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1468150214742636</v>
+        <v>0.1442662547893316</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9819120215699139</v>
+        <v>0.9648656415538855</v>
       </c>
       <c r="H45" t="n">
-        <v>9.483202945162065</v>
+        <v>9.318570801323053</v>
       </c>
       <c r="I45" t="n">
-        <v>33.8070586373852</v>
+        <v>33.22015476402633</v>
       </c>
       <c r="J45" t="n">
-        <v>92.76915287998911</v>
+        <v>91.15864379259759</v>
       </c>
       <c r="K45" t="n">
-        <v>158.5572583251733</v>
+        <v>155.8046417767079</v>
       </c>
       <c r="L45" t="n">
-        <v>197.5250185147619</v>
+        <v>170.4246258367253</v>
       </c>
       <c r="M45" t="n">
-        <v>201.8921965681778</v>
+        <v>196.5242151583548</v>
       </c>
       <c r="N45" t="n">
-        <v>163.5211535841827</v>
+        <v>183.3575825151591</v>
       </c>
       <c r="O45" t="n">
-        <v>202.4560934055376</v>
+        <v>197.0881119957146</v>
       </c>
       <c r="P45" t="n">
-        <v>187.502129803118</v>
+        <v>184.2470188683029</v>
       </c>
       <c r="Q45" t="n">
-        <v>125.3402082270648</v>
+        <v>123.1642527709837</v>
       </c>
       <c r="R45" t="n">
-        <v>60.96467797080572</v>
+        <v>59.90630711331934</v>
       </c>
       <c r="S45" t="n">
-        <v>18.23858513749378</v>
+        <v>17.92195610517852</v>
       </c>
       <c r="T45" t="n">
-        <v>3.95779450799452</v>
+        <v>3.889085634157984</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06459947510328383</v>
+        <v>0.06347800273380828</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8232020543216274</v>
+        <v>0.8089109419412067</v>
       </c>
       <c r="H46" t="n">
-        <v>7.319014628423202</v>
+        <v>7.191953647440917</v>
       </c>
       <c r="I46" t="n">
-        <v>24.75593086996313</v>
+        <v>24.32615814492284</v>
       </c>
       <c r="J46" t="n">
-        <v>58.20038524053906</v>
+        <v>57.19000359524332</v>
       </c>
       <c r="K46" t="n">
-        <v>95.64111140209451</v>
+        <v>93.98074398189655</v>
       </c>
       <c r="L46" t="n">
-        <v>122.3876945125081</v>
+        <v>120.26299585915</v>
       </c>
       <c r="M46" t="n">
-        <v>129.0406638424347</v>
+        <v>126.8004670172021</v>
       </c>
       <c r="N46" t="n">
-        <v>125.9723652763269</v>
+        <v>123.7854353245122</v>
       </c>
       <c r="O46" t="n">
-        <v>116.3558685508424</v>
+        <v>114.3358847754717</v>
       </c>
       <c r="P46" t="n">
-        <v>99.56254664268116</v>
+        <v>97.834101559871</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.93194656687737</v>
+        <v>67.73526078382233</v>
       </c>
       <c r="R46" t="n">
-        <v>37.01415782431607</v>
+        <v>36.37157744401098</v>
       </c>
       <c r="S46" t="n">
-        <v>14.34616671031417</v>
+        <v>14.09711159728448</v>
       </c>
       <c r="T46" t="n">
-        <v>3.517317868465134</v>
+        <v>3.456255842839701</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04490193023572518</v>
+        <v>0.04412241501497496</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>10.61514194329197</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>10.18624731932058</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>12.73183452244704</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N17" t="n">
-        <v>12.73183452244704</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O17" t="n">
-        <v>12.73183452244704</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>12.21741696598453</v>
+        <v>1.388282505278726</v>
       </c>
       <c r="M18" t="n">
-        <v>12.73183452244704</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N18" t="n">
-        <v>12.73183452244704</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P18" t="n">
-        <v>12.73183452244704</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>12.731834522447</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N20" t="n">
-        <v>12.731834522447</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O20" t="n">
-        <v>12.731834522447</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>12.21741696598449</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="M21" t="n">
-        <v>12.731834522447</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N21" t="n">
-        <v>12.731834522447</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O21" t="n">
-        <v>12.731834522447</v>
+        <v>22.18652432809877</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N23" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O23" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="M24" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N24" t="n">
-        <v>41.22050970576248</v>
+        <v>13.38855951405692</v>
       </c>
       <c r="O24" t="n">
-        <v>15.50168180850057</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="P24" t="n">
-        <v>24.05335275763514</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N26" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O26" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15.50168180850058</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="M27" t="n">
-        <v>41.22050970576248</v>
+        <v>13.38855951405692</v>
       </c>
       <c r="N27" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O27" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="P27" t="n">
-        <v>24.05335275763514</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N29" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O29" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="M30" t="n">
-        <v>15.50168180850057</v>
+        <v>13.38855951405692</v>
       </c>
       <c r="N30" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O30" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="P30" t="n">
-        <v>24.05335275763514</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N32" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O32" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="M33" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N33" t="n">
-        <v>15.50168180850057</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O33" t="n">
-        <v>41.22050970576248</v>
+        <v>13.38855951405692</v>
       </c>
       <c r="P33" t="n">
-        <v>24.05335275763514</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N35" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O35" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>15.50168180850058</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="M36" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N36" t="n">
-        <v>41.22050970576248</v>
+        <v>13.38855951405692</v>
       </c>
       <c r="O36" t="n">
-        <v>41.22050970576248</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="P36" t="n">
-        <v>24.05335275763514</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N38" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O38" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>41.22050970576246</v>
+        <v>13.38855951405692</v>
       </c>
       <c r="M39" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="N39" t="n">
-        <v>41.22050970576246</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="O39" t="n">
-        <v>39.55503456613568</v>
+        <v>35.62624560369284</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N41" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O41" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="M42" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N42" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O42" t="n">
-        <v>27.33761760015117</v>
+        <v>22.18652432809877</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.971367502864098</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N44" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O44" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>28.48867518331542</v>
+        <v>1.388282505278726</v>
       </c>
       <c r="M45" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="N45" t="n">
-        <v>3.284264842516039</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="O45" t="n">
-        <v>28.48867518331542</v>
+        <v>23.12069377349241</v>
       </c>
       <c r="P45" t="n">
-        <v>24.05335275763514</v>
+        <v>20.79824182282005</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
